--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,6 +495,66 @@
         <v>19.97</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>06-28-2024</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>42.98</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>06-28-2024</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>57.29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>06-28-2024</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>70.48</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>06-28-2024</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>33.02</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,6 +555,51 @@
         <v>33.02</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>07-01-2024</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Grocery Haul</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>49.69</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>07-01-2024</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>37.71</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>07-01-2024</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>54.63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -600,6 +600,36 @@
         <v>54.63</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>07-02-2024</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>37.03</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>07-02-2024</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Fast Food/Restaurant</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>19.52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
